--- a/phonRep.xlsx
+++ b/phonRep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenahblack/Documents/School/College/Research/Matlab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenahblack/Documents/School/College/Research/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B683BAE-3916-104C-B886-5F2122B68C49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754C87E5-7E27-0445-97A9-08828220060A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3A357077-1C5E-7144-8066-4A0DB0286914}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{3A357077-1C5E-7144-8066-4A0DB0286914}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>CMUPD</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>radical</t>
+  </si>
+  <si>
+    <t>diphthong</t>
   </si>
 </sst>
 </file>
@@ -558,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3C6A8A-5ED0-7442-B215-17D3C56E047A}">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2:AO12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2029,10 +2032,126 @@
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="5"/>
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="Z14" s="1"/>
